--- a/planilhas/dados_dia_wine.xlsx
+++ b/planilhas/dados_dia_wine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol.barroso\Documents\GitHub\powerbi-diawine\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B71D02B-AE85-4702-B84D-3A95C378592A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F9A27A-DE77-46C5-948A-3E1DC95B60EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Código</t>
   </si>
@@ -89,6 +89,75 @@
   </si>
   <si>
     <t>DIA WINE NETO ESP</t>
+  </si>
+  <si>
+    <t>DIA WINE JOYCE ANNE DE MORAES ESP</t>
+  </si>
+  <si>
+    <t>DIA WINE CANTU FLAVIA ALVES</t>
+  </si>
+  <si>
+    <t>DIA WINE ALBERICO ESP</t>
+  </si>
+  <si>
+    <t>DIA WINE SIMONE SOUTO MAIOR ROCHA ESP</t>
+  </si>
+  <si>
+    <t>DIA WINE FELIX ESP</t>
+  </si>
+  <si>
+    <t>DIA WINE INTERNET SITE</t>
+  </si>
+  <si>
+    <t>DIA WINE MARCIO PEREIRA DE LIMA</t>
+  </si>
+  <si>
+    <t>DIA WINE MARCIO PEREIRA DE LIMA ESP</t>
+  </si>
+  <si>
+    <t>DIA WINE MARCIO CLESIO DE SOUSA MONTEIRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIA WINE CARLOS ANDRE DA SILVA JORGE </t>
+  </si>
+  <si>
+    <t>DIA WINE CARLOS ANDRE DA SILVA JORGE ESP</t>
+  </si>
+  <si>
+    <t>DIA WINE ERIKA ESP</t>
+  </si>
+  <si>
+    <t>DIA WINE ALBERICO</t>
+  </si>
+  <si>
+    <t>DIA WINE ERIKA ALMEIDA</t>
+  </si>
+  <si>
+    <t>DIA WINE ANDERSON CARLOS SILVA</t>
+  </si>
+  <si>
+    <t>DIA WINE MARCIO CLESIO DE SOUSA MONTEIRO ESP</t>
+  </si>
+  <si>
+    <t>DIA WINE JOSEANE SEVERINA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>DIA WINE INTERNET RICARDO</t>
+  </si>
+  <si>
+    <t>DIA WINE CANTU ANA CAROLINA</t>
+  </si>
+  <si>
+    <t>DIA WINE INTERNET AMELIA WEB</t>
+  </si>
+  <si>
+    <t>DIA WINE INTERNET REVENDEDOR</t>
+  </si>
+  <si>
+    <t>DIA WINE JOSEANE SEVERINA DOS SANTOS ESP</t>
+  </si>
+  <si>
+    <t>DIA WINE NETO</t>
   </si>
 </sst>
 </file>
@@ -449,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF102C8-0374-4069-A02E-5B00B3F1A270}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,10 +949,10 @@
         <v>3797</v>
       </c>
       <c r="L9" s="2">
-        <v>108740.81</v>
+        <v>106740.81</v>
       </c>
       <c r="M9" s="2">
-        <v>4.41</v>
+        <v>3.11</v>
       </c>
       <c r="N9" s="2">
         <v>4405.28</v>
@@ -927,10 +996,10 @@
         <v>3934</v>
       </c>
       <c r="L10" s="2">
-        <v>108368.25</v>
+        <v>104368.25</v>
       </c>
       <c r="M10" s="2">
-        <v>4.41</v>
+        <v>3.04</v>
       </c>
       <c r="N10" s="2">
         <v>4412.59</v>
@@ -943,7 +1012,9 @@
       <c r="A11" s="2">
         <v>1910</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C11" s="2">
         <v>308</v>
       </c>
@@ -952,13 +1023,39 @@
       </c>
       <c r="E11" s="2">
         <v>7.47</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1882</v>
+      </c>
+      <c r="L11" s="2">
+        <v>102918.49</v>
+      </c>
+      <c r="M11" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2148</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C12" s="2">
         <v>79</v>
       </c>
@@ -967,13 +1064,39 @@
       </c>
       <c r="E12" s="2">
         <v>51.9</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2478</v>
+      </c>
+      <c r="L12" s="2">
+        <v>98644.39</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2.88</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>876</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="C13" s="2">
         <v>275</v>
       </c>
@@ -982,13 +1105,39 @@
       </c>
       <c r="E13" s="2">
         <v>27.27</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>2614</v>
+      </c>
+      <c r="L13" s="2">
+        <v>97767.66</v>
+      </c>
+      <c r="M13" s="2">
+        <v>2.85</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2080</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="C14" s="2">
         <v>351</v>
       </c>
@@ -997,13 +1146,39 @@
       </c>
       <c r="E14" s="2">
         <v>10.83</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1506</v>
+      </c>
+      <c r="L14" s="2">
+        <v>92935.52</v>
+      </c>
+      <c r="M14" s="2">
+        <v>2.71</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>763</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C15" s="2">
         <v>222</v>
       </c>
@@ -1012,13 +1187,39 @@
       </c>
       <c r="E15" s="2">
         <v>5.86</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>3481</v>
+      </c>
+      <c r="L15" s="2">
+        <v>81090.100000000006</v>
+      </c>
+      <c r="M15" s="2">
+        <v>2.36</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1004</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="C16" s="2">
         <v>514</v>
       </c>
@@ -1028,12 +1229,38 @@
       <c r="E16" s="2">
         <v>29.96</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1012</v>
+      </c>
+      <c r="L16" s="2">
+        <v>79293.52</v>
+      </c>
+      <c r="M16" s="2">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2058</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="C17" s="2">
         <v>211</v>
       </c>
@@ -1043,12 +1270,38 @@
       <c r="E17" s="2">
         <v>31.28</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>2990</v>
+      </c>
+      <c r="L17" s="2">
+        <v>76198.62</v>
+      </c>
+      <c r="M17" s="2">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2059</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="C18" s="2">
         <v>209</v>
       </c>
@@ -1058,12 +1311,38 @@
       <c r="E18" s="2">
         <v>26.32</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>2423</v>
+      </c>
+      <c r="L18" s="2">
+        <v>73100.87</v>
+      </c>
+      <c r="M18" s="2">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2064</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="C19" s="2">
         <v>530</v>
       </c>
@@ -1073,12 +1352,38 @@
       <c r="E19" s="2">
         <v>10.94</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>2488</v>
+      </c>
+      <c r="L19" s="2">
+        <v>68842.55</v>
+      </c>
+      <c r="M19" s="2">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1747</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="C20" s="2">
         <v>316</v>
       </c>
@@ -1088,161 +1393,562 @@
       <c r="E20" s="2">
         <v>16.77</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1480</v>
+      </c>
+      <c r="L20" s="2">
+        <v>61142.29</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1750</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="C21" s="2">
         <v>312</v>
       </c>
       <c r="D21" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="2">
+        <v>10.9</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1280</v>
+      </c>
+      <c r="L21" s="2">
+        <v>56828.12</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>877</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="C22" s="2">
         <v>272</v>
       </c>
       <c r="D22" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="2">
+        <v>3.31</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>452</v>
+      </c>
+      <c r="L22" s="2">
+        <v>56558.559999999998</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>765</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="C23" s="2">
         <v>279</v>
       </c>
       <c r="D23" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="2">
+        <v>10.75</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1328</v>
+      </c>
+      <c r="L23" s="2">
+        <v>48774.21</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>862</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="C24" s="2">
         <v>282</v>
       </c>
       <c r="D24" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="2">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>707</v>
+      </c>
+      <c r="L24" s="2">
+        <v>47425.45</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>807</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="C25" s="2">
         <v>351</v>
       </c>
       <c r="D25" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="2">
+        <v>8.26</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1174</v>
+      </c>
+      <c r="L25" s="2">
+        <v>43771.42</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2065</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="C26" s="2">
         <v>528</v>
       </c>
       <c r="D26" s="2">
         <v>78</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="2">
+        <v>14.77</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1167</v>
+      </c>
+      <c r="L26" s="2">
+        <v>41197.01</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2251</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="C27" s="2">
         <v>180</v>
       </c>
       <c r="D27" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="2">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>990</v>
+      </c>
+      <c r="L27" s="2">
+        <v>26777.82</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>731</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="C28" s="2">
         <v>73</v>
       </c>
       <c r="D28" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="2">
+        <v>21.92</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>237</v>
+      </c>
+      <c r="L28" s="2">
+        <v>15932.78</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2151</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="C29" s="2">
         <v>49</v>
       </c>
       <c r="D29" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="2">
+        <v>20.41</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>331</v>
+      </c>
+      <c r="L29" s="2">
+        <v>14935.67</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1001</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="C30" s="2">
         <v>69</v>
       </c>
       <c r="D30" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="2">
+        <v>17.39</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>119</v>
+      </c>
+      <c r="L30" s="2">
+        <v>13144.47</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1002</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="C31" s="2">
         <v>15</v>
       </c>
       <c r="D31" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31" s="2">
+        <v>20</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <v>600</v>
+      </c>
+      <c r="L31" s="2">
+        <v>11275.78</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>2252</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="C32" s="2">
         <v>178</v>
       </c>
       <c r="D32" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="2">
+        <v>2.81</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
+        <v>177</v>
+      </c>
+      <c r="L32" s="2">
+        <v>11201.06</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>718</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="C33" s="2">
         <v>136</v>
       </c>
       <c r="D33" s="2">
         <v>8</v>
+      </c>
+      <c r="E33" s="2">
+        <v>5.88</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>177</v>
+      </c>
+      <c r="L33" s="2">
+        <v>5543.51</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>
